--- a/Data_all/Data_all.xlsx
+++ b/Data_all/Data_all.xlsx
@@ -43,8 +43,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,12 +99,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -117,6 +117,397 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9166666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9166666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6666666666666661E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8611111111111149E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="197282432"/>
+        <c:axId val="197362048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="197282432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197362048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197362048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197282432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79616666666666658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86826666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93755555555555548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0159166666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1059333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1563333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2732083333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3005666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.37775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="271503360"/>
+        <c:axId val="271504896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="271503360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271504896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="271504896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271503360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,158 +800,158 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>12</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>20</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>24</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>4</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>6</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>8</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>10</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>12</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>15</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>16</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>20</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.02</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>7.9166666666666663E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>7.6666666666666661E-2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>9.8611111111111149E-2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.79616666666666658</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.86826666666666663</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>0.93755555555555548</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>1.0159166666666666</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>1.1059333333333332</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>1.1563333333333332</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>1.1359999999999999</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>1.2732083333333333</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>1.3005666666666664</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>1.37775</v>
       </c>
     </row>
@@ -572,6 +963,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_all.xlsx
+++ b/Data_all/Data_all.xlsx
@@ -232,11 +232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197282432"/>
-        <c:axId val="197362048"/>
+        <c:axId val="235660032"/>
+        <c:axId val="235661568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197282432"/>
+        <c:axId val="235660032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -246,7 +246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197362048"/>
+        <c:crossAx val="235661568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -254,7 +254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197362048"/>
+        <c:axId val="235661568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -265,7 +265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197282432"/>
+        <c:crossAx val="235660032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -395,11 +395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="271503360"/>
-        <c:axId val="271504896"/>
+        <c:axId val="236422656"/>
+        <c:axId val="236424192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271503360"/>
+        <c:axId val="236422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,7 +409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271504896"/>
+        <c:crossAx val="236424192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,7 +417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271504896"/>
+        <c:axId val="236424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271503360"/>
+        <c:crossAx val="236422656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -800,7 +800,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="L3" sqref="L3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Data_all/Data_all.xlsx
+++ b/Data_all/Data_all.xlsx
@@ -144,6 +144,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$J$2</c:f>
@@ -232,11 +237,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="235660032"/>
-        <c:axId val="235661568"/>
+        <c:axId val="186676352"/>
+        <c:axId val="186677888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235660032"/>
+        <c:axId val="186676352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -246,7 +251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235661568"/>
+        <c:crossAx val="186677888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -254,9 +259,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235661568"/>
+        <c:axId val="186677888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -265,7 +272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235660032"/>
+        <c:crossAx val="186676352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -307,6 +314,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$L$2:$U$2</c:f>
@@ -395,11 +407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="236422656"/>
-        <c:axId val="236424192"/>
+        <c:axId val="241371392"/>
+        <c:axId val="241381376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236422656"/>
+        <c:axId val="241371392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,7 +421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236424192"/>
+        <c:crossAx val="241381376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,9 +429,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236424192"/>
+        <c:axId val="241381376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -428,7 +442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236422656"/>
+        <c:crossAx val="241371392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Data_all/Data_all.xlsx
+++ b/Data_all/Data_all.xlsx
@@ -146,8 +146,86 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$A$4:$J$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2687494916218989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2222222222222223E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6679684322636874E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6666666666666674E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7679611017362585E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.5377492419453868E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.6519416526043913E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.3861732687201101E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.7487002770218792E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$A$4:$J$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2687494916218989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2222222222222223E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6679684322636874E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6666666666666674E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7679611017362585E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.5377492419453868E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.6519416526043913E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.3861732687201101E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.7487002770218792E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -237,11 +315,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186676352"/>
-        <c:axId val="186677888"/>
+        <c:axId val="234325120"/>
+        <c:axId val="234326656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186676352"/>
+        <c:axId val="234325120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -251,7 +329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186677888"/>
+        <c:crossAx val="234326656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -259,10 +337,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186677888"/>
+        <c:axId val="234326656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -272,7 +350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186676352"/>
+        <c:crossAx val="234325120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -316,8 +394,86 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$4:$U$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>8.1261067622269145E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11116482257341107</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15290423049642543</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12306245591388042</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1381800596645146</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14679438883210896</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10558582022269265</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11366893478919862</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19742092931939376</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.4513083717690405E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$4:$U$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>8.1261067622269145E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11116482257341107</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15290423049642543</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12306245591388042</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1381800596645146</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14679438883210896</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10558582022269265</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11366893478919862</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19742092931939376</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.4513083717690405E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -407,11 +563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="241371392"/>
-        <c:axId val="241381376"/>
+        <c:axId val="235092224"/>
+        <c:axId val="235102208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241371392"/>
+        <c:axId val="235092224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241381376"/>
+        <c:crossAx val="235102208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -429,10 +585,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241381376"/>
+        <c:axId val="235102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -442,7 +598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241371392"/>
+        <c:crossAx val="235092224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:U3"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,6 +1123,68 @@
       </c>
       <c r="U3" s="2">
         <v>1.37775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4.2687494916218989E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.6679684322636874E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.6666666666666674E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.7679611017362585E-2</v>
+      </c>
+      <c r="G4">
+        <v>5.5377492419453868E-2</v>
+      </c>
+      <c r="H4">
+        <v>5.6519416526043913E-2</v>
+      </c>
+      <c r="I4">
+        <v>7.3861732687201101E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.7487002770218792E-2</v>
+      </c>
+      <c r="L4">
+        <v>8.1261067622269145E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.11116482257341107</v>
+      </c>
+      <c r="N4">
+        <v>0.15290423049642543</v>
+      </c>
+      <c r="O4">
+        <v>0.12306245591388042</v>
+      </c>
+      <c r="P4">
+        <v>0.1381800596645146</v>
+      </c>
+      <c r="Q4">
+        <v>0.14679438883210896</v>
+      </c>
+      <c r="R4">
+        <v>0.10558582022269265</v>
+      </c>
+      <c r="S4">
+        <v>0.11366893478919862</v>
+      </c>
+      <c r="T4">
+        <v>0.19742092931939376</v>
+      </c>
+      <c r="U4">
+        <v>9.4513083717690405E-2</v>
       </c>
     </row>
   </sheetData>
